--- a/biology/Médecine/Syndrome_de_Imerslund-Grasbeck/Syndrome_de_Imerslund-Grasbeck.xlsx
+++ b/biology/Médecine/Syndrome_de_Imerslund-Grasbeck/Syndrome_de_Imerslund-Grasbeck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Imerslund-Grasbeck ou anémie mégaloblastique par  malabsorption sélective de cobalamine avec protéinurie est un déficit en vitamine B12 aboutissant à une anémie mégaloblastique dans l'enfance et se corrigeant par administration parentérale de vitamine B12. Cette pathologie est essentiellement localisée en Finlande,  en Norvège et dans les pays musulmans  méditerranéens. La maladie a été décrite vers 1960 simultanément par Olga Imerslund, pédiatre norvégienne et Ralph Gräsbeck, médecin-biochimiste finlandais. 
@@ -516,7 +528,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Ralph Grasbeck « Imerslund-Grasbeck Syndrome (Selective Vitamin B12 Malabsorption with Proteinuria) » Orphanet Journal of Rare Diseases 2006, 1:17. DOI 10.1186/1750-1172-1-17
  Portail de la médecine   Portail de l’hématologie                    </t>
